--- a/TABLO.xlsx
+++ b/TABLO.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Ham Puan</t>
   </si>
@@ -34,18 +35,163 @@
   </si>
   <si>
     <t>z puan</t>
+  </si>
+  <si>
+    <t>Raw Scores</t>
+  </si>
+  <si>
+    <t>z Transformation</t>
+  </si>
+  <si>
+    <t>T Transformation</t>
+  </si>
+  <si>
+    <t>(M=100, SD=50)</t>
+  </si>
+  <si>
+    <t>0-1 Transformation</t>
+  </si>
+  <si>
+    <t>Min-Max</t>
+  </si>
+  <si>
+    <t>(0-500)</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>0,000</t>
+  </si>
+  <si>
+    <t>0,011</t>
+  </si>
+  <si>
+    <t>0,065</t>
+  </si>
+  <si>
+    <t>0,120</t>
+  </si>
+  <si>
+    <t>0,130</t>
+  </si>
+  <si>
+    <t>0,163</t>
+  </si>
+  <si>
+    <t>-0,884</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>-0,640</t>
+  </si>
+  <si>
+    <t>0,337</t>
+  </si>
+  <si>
+    <t>-0,186</t>
+  </si>
+  <si>
+    <t>0,478</t>
+  </si>
+  <si>
+    <t>-0,046</t>
+  </si>
+  <si>
+    <t>0,522</t>
+  </si>
+  <si>
+    <t>0,128</t>
+  </si>
+  <si>
+    <t>0,576</t>
+  </si>
+  <si>
+    <t>0,338</t>
+  </si>
+  <si>
+    <t>0,641</t>
+  </si>
+  <si>
+    <t>0,373</t>
+  </si>
+  <si>
+    <t>0,652</t>
+  </si>
+  <si>
+    <t>0,408</t>
+  </si>
+  <si>
+    <t>0,663</t>
+  </si>
+  <si>
+    <t>0,685</t>
+  </si>
+  <si>
+    <t>0,582</t>
+  </si>
+  <si>
+    <t>0,717</t>
+  </si>
+  <si>
+    <t>0,739</t>
+  </si>
+  <si>
+    <t>0,827</t>
+  </si>
+  <si>
+    <t>0,793</t>
+  </si>
+  <si>
+    <t>0,862</t>
+  </si>
+  <si>
+    <t>0,804</t>
+  </si>
+  <si>
+    <t>0,935</t>
+  </si>
+  <si>
+    <t>0,978</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -65,12 +211,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -448,7 +722,7 @@
         <v>-1.8029197080291974</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F16" si="3">_xlfn.NORM.INV(D4/100,0,1)</f>
+        <f t="shared" ref="F4:F16" si="3">_xlfn.NORM.INV(D4/100,0,1)</f>
         <v>-1.7506860712521695</v>
       </c>
     </row>
@@ -749,4 +1023,1004 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-1722</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13897</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f>STANDARDIZE(I4,AVERAGEA(A$4:A$28),_xlfn.STDEV.S(A$4:A$28))</f>
+        <v>-1.6873071328388076</v>
+      </c>
+      <c r="K4">
+        <f>100+50*J4</f>
+        <v>15.63464335805962</v>
+      </c>
+      <c r="L4">
+        <f>(I4-I$4)/(99-7)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>L4*(500-100)+100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-1687</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15642</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10">
+        <v>104348</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J28" si="0">STANDARDIZE(I5,AVERAGEA(A$4:A$28),_xlfn.STDEV.S(A$4:A$28))</f>
+        <v>-1.653095714898037</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K28" si="1">100+50*J5</f>
+        <v>17.345214255098156</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L28" si="2">(I5-I$4)/(99-7)</f>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M28" si="3">L5*(500-100)+100</f>
+        <v>104.34782608695652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-1513</v>
+      </c>
+      <c r="C6" s="8">
+        <v>24372</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10">
+        <v>126087</v>
+      </c>
+      <c r="I6" s="7">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-1.4820386251941839</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>25.898068740290796</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>126.08695652173913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-1338</v>
+      </c>
+      <c r="C7" s="8">
+        <v>33101</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10">
+        <v>147826</v>
+      </c>
+      <c r="I7" s="7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-1.3109815354903307</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>34.450923225483464</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.11956521739130435</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>147.82608695652175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-1303</v>
+      </c>
+      <c r="C8" s="8">
+        <v>34846</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10">
+        <v>152174</v>
+      </c>
+      <c r="I8" s="7">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-1.27677011754956</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>36.161494122522001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>152.17391304347825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-1198</v>
+      </c>
+      <c r="C9" s="8">
+        <v>40084</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10">
+        <v>165217</v>
+      </c>
+      <c r="I9" s="7">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-1.1741358637272481</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>41.293206813637596</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.16304347826086957</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>165.21739130434781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>55796</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10">
+        <v>204348</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-0.86623310226031247</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>56.688344886984375</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>204.3478260869565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>68017</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="10">
+        <v>234783</v>
+      </c>
+      <c r="I11" s="7">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-0.62675317667491803</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>68.662341166254095</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.33695652173913043</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>234.78260869565219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>51</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>90712</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10">
+        <v>291304</v>
+      </c>
+      <c r="I12" s="7">
+        <v>51</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-0.18200474344489978</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>90.899762827755012</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>291.304347826087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>51</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>90712</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10">
+        <v>291304</v>
+      </c>
+      <c r="I13" s="7">
+        <v>51</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-0.18200474344489978</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>90.899762827755012</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>291.304347826087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>55</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8">
+        <v>97696</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10">
+        <v>308696</v>
+      </c>
+      <c r="I14" s="7">
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>-4.5159071681817244E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>97.742046415909144</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>308.695652173913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>60</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <v>106425</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10">
+        <v>330435</v>
+      </c>
+      <c r="I15" s="7">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.12589801802203593</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>106.2949009011018</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.57608695652173914</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>330.43478260869563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>66</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8">
+        <v>116899</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10">
+        <v>356522</v>
+      </c>
+      <c r="I16" s="7">
+        <v>66</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.33116652566665972</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>116.55832628333299</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.64130434782608692</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>356.52173913043475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>67</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8">
+        <v>118645</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10">
+        <v>360870</v>
+      </c>
+      <c r="I17" s="7">
+        <v>67</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.36537794360743037</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>118.26889718037151</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>360.86956521739131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>68</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8">
+        <v>120391</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10">
+        <v>365217</v>
+      </c>
+      <c r="I18" s="7">
+        <v>68</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.39958936154820102</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>119.97946807741005</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.66304347826086951</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>365.21739130434781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>70</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8">
+        <v>123883</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="10">
+        <v>373913</v>
+      </c>
+      <c r="I19" s="7">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.46801219742974226</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>123.40060987148712</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.68478260869565222</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>373.91304347826087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>73</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8">
+        <v>129120</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10">
+        <v>386957</v>
+      </c>
+      <c r="I20" s="7">
+        <v>73</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.57064645125205415</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>128.5323225626027</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>386.95652173913044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>73</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8">
+        <v>129120</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="10">
+        <v>386957</v>
+      </c>
+      <c r="I21" s="7">
+        <v>73</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.57064645125205415</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>128.5323225626027</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>386.95652173913044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>75</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8">
+        <v>132612</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="10">
+        <v>395652</v>
+      </c>
+      <c r="I22" s="7">
+        <v>75</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.63906928713359545</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>131.95346435667977</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>395.65217391304344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>80</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="8">
+        <v>141341</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10">
+        <v>417391</v>
+      </c>
+      <c r="I23" s="7">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.81012637683744859</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>140.50631884187243</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>417.39130434782606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>81</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8">
+        <v>143087</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="10">
+        <v>421739</v>
+      </c>
+      <c r="I24" s="7">
+        <v>81</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.84433779477821924</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>142.21688973891096</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.80434782608695654</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>421.73913043478262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>93</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1281</v>
+      </c>
+      <c r="C25" s="8">
+        <v>164036</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="10">
+        <v>473913</v>
+      </c>
+      <c r="I25" s="7">
+        <v>93</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1.2548748100674669</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>162.74374050337335</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>473.91304347826087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>93</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1281</v>
+      </c>
+      <c r="C26" s="8">
+        <v>164036</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="10">
+        <v>473913</v>
+      </c>
+      <c r="I26" s="7">
+        <v>93</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.2548748100674669</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>162.74374050337335</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>473.91304347826087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>97</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1420</v>
+      </c>
+      <c r="C27" s="8">
+        <v>171020</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="10">
+        <v>491304</v>
+      </c>
+      <c r="I27" s="7">
+        <v>97</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.3917204818305493</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>169.58602409152746</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>491.30434782608694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>99</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1490</v>
+      </c>
+      <c r="C28" s="8">
+        <v>174511</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="10">
+        <v>500000</v>
+      </c>
+      <c r="I28" s="7">
+        <v>99</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1.4601433177120906</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>173.00716588560454</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="L1:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>